--- a/ListasDatos/Rodriguez Roman Marisol_2021.xlsx
+++ b/ListasDatos/Rodriguez Roman Marisol_2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="559">
   <si>
     <t>NC</t>
   </si>
@@ -246,7 +246,7 @@
     <t>marcosflow285@gmail.com</t>
   </si>
   <si>
-    <t>jesussamuelgarcialeon96@gmail.com</t>
+    <t>erikaleonpalacios7@gmail.com</t>
   </si>
   <si>
     <t>roger123459876@gmail.com</t>
@@ -393,7 +393,7 @@
     <t>MIGUEL ÁNGEL RAMÍREZ MORENO</t>
   </si>
   <si>
-    <t>GUADALUPE ITSEL TEPEPA ROSAS</t>
+    <t>GUADALUPE ITZEL TEPEPA ROSAS</t>
   </si>
   <si>
     <t>JUAN MANUEL CANTELLAN CARRERA</t>
@@ -426,7 +426,7 @@
     <t>KARINA BAEZA HERNÁNDEZ</t>
   </si>
   <si>
-    <t>MIRIAM MOLINA MORALES MOLINA MORALES</t>
+    <t>MIRIAM MOLINA MORALES</t>
   </si>
   <si>
     <t>ANTONIA ROCIO RODRÍGUEZ SANCHEZ</t>
@@ -495,6 +495,9 @@
     <t>manuel.flomat@hotmail.com</t>
   </si>
   <si>
+    <t>Kelly_rivera_vargas@gmail.com</t>
+  </si>
+  <si>
     <t>jesus_ramirez_flores@outlook.com</t>
   </si>
   <si>
@@ -747,6 +750,9 @@
     <t>gc050405@gmail.com</t>
   </si>
   <si>
+    <t>cesarcuevasc3@gmail.com</t>
+  </si>
+  <si>
     <t>isyssmonserrathc@gmail.com</t>
   </si>
   <si>
@@ -819,6 +825,9 @@
     <t>2721690558</t>
   </si>
   <si>
+    <t>2722848082</t>
+  </si>
+  <si>
     <t>2721054944</t>
   </si>
   <si>
@@ -922,6 +931,9 @@
   </si>
   <si>
     <t>GERARDO CORTÉS VILLASCAN</t>
+  </si>
+  <si>
+    <t>GERARDO CUEVAS MACUIXTLE</t>
   </si>
   <si>
     <t>JANETH PIMENTEL DOMINGUEZ</t>
@@ -2108,7 +2120,7 @@
         <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2140,7 +2152,7 @@
         <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2169,7 +2181,7 @@
         <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2198,7 +2210,7 @@
         <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2256,7 +2268,7 @@
         <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2288,7 +2300,7 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2317,7 +2329,7 @@
         <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2349,7 +2361,7 @@
         <v>152</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2381,7 +2393,7 @@
         <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2413,7 +2425,7 @@
         <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2442,7 +2454,7 @@
         <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2471,7 +2483,7 @@
         <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2503,7 +2515,7 @@
         <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2535,7 +2547,7 @@
         <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2567,7 +2579,7 @@
         <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2596,7 +2608,7 @@
         <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2621,8 +2633,11 @@
       <c r="H19" t="s">
         <v>140</v>
       </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2651,10 +2666,10 @@
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2683,10 +2698,10 @@
         <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2718,7 +2733,7 @@
         <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2744,10 +2759,10 @@
         <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2809,28 +2824,28 @@
         <v>20330051920336</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="J2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2838,28 +2853,28 @@
         <v>20330051920337</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="J3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2867,31 +2882,31 @@
         <v>20330051920263</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2899,31 +2914,31 @@
         <v>20330051920339</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2931,13 +2946,31 @@
         <v>20330051920340</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H6" t="s">
+        <v>305</v>
+      </c>
+      <c r="I6" t="s">
+        <v>244</v>
+      </c>
+      <c r="J6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2945,31 +2978,31 @@
         <v>20330051920341</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="J7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2977,28 +3010,28 @@
         <v>20330051920342</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3006,31 +3039,31 @@
         <v>20330051920343</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3041,25 +3074,25 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I10" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="J10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3067,28 +3100,28 @@
         <v>19330051420540</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3099,28 +3132,28 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J12" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3134,19 +3167,19 @@
         <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3157,28 +3190,28 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3186,28 +3219,28 @@
         <v>20330051920347</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="J15" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3215,31 +3248,31 @@
         <v>20330051920348</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G16" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H16" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="I16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="J16" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3247,28 +3280,28 @@
         <v>20330051920349</v>
       </c>
       <c r="B17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H17" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3276,31 +3309,31 @@
         <v>20330051920350</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H18" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I18" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J18" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3314,25 +3347,25 @@
         <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="I19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J19" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -3340,31 +3373,31 @@
         <v>20330051920353</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H20" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="I20" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="J20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3372,31 +3405,31 @@
         <v>20330051920354</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H21" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="I21" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J21" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3404,31 +3437,31 @@
         <v>20330051920355</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I22" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J22" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3436,31 +3469,31 @@
         <v>20330051920382</v>
       </c>
       <c r="B23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H23" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I23" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J23" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3468,28 +3501,28 @@
         <v>20330051920356</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H24" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I24" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="J24" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -3497,31 +3530,31 @@
         <v>20330051920357</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E25" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F25" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I25" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J25" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3529,31 +3562,31 @@
         <v>20330051920383</v>
       </c>
       <c r="B26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G26" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="I26" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J26" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3615,28 +3648,28 @@
         <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="G2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="H2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3644,31 +3677,31 @@
         <v>19330051920430</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F3" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="I3" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="J3" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3679,28 +3712,28 @@
         <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D4" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="F4" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G4" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H4" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="I4" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="J4" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3708,31 +3741,31 @@
         <v>19330051920225</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="G5" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H5" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="I5" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="J5" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3740,28 +3773,28 @@
         <v>19330051920226</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D6" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="H6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I6" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="J6" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3769,31 +3802,31 @@
         <v>19330051920227</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="F7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="G7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="I7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3801,31 +3834,31 @@
         <v>19330051920229</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="G8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="H8" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="I8" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="J8" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3833,31 +3866,31 @@
         <v>19330051920230</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D9" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="H9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="I9" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="J9" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3865,31 +3898,31 @@
         <v>19330051920231</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D10" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="G10" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="I10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="J10" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3897,31 +3930,31 @@
         <v>19330051920232</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G11" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="H11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="I11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="J11" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3929,31 +3962,31 @@
         <v>19330051920233</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G12" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I12" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J12" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3961,31 +3994,31 @@
         <v>19330051920234</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D13" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G13" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="H13" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="I13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="J13" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3996,25 +4029,25 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D14" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F14" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G14" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H14" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="J14" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4022,31 +4055,31 @@
         <v>19330051920235</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I15" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="J15" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4054,28 +4087,28 @@
         <v>19330051920236</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H16" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="I16" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="J16" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4083,31 +4116,31 @@
         <v>19330051920237</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H17" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="I17" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="J17" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4115,31 +4148,31 @@
         <v>19330051920228</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D18" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="H18" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="I18" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="J18" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4147,31 +4180,31 @@
         <v>19330051420227</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E19" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F19" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="G19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="H19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="I19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="J19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4179,28 +4212,28 @@
         <v>19330051920404</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C20" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D20" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E20" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="H20" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I20" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="J20" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4211,28 +4244,28 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G21" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="I21" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="J21" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4240,31 +4273,31 @@
         <v>19330051920239</v>
       </c>
       <c r="B22" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D22" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E22" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F22" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="G22" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H22" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="I22" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J22" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -4272,28 +4305,28 @@
         <v>19330051920241</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C23" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D23" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F23" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H23" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I23" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="J23" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4307,25 +4340,25 @@
         <v>18</v>
       </c>
       <c r="D24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F24" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G24" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="H24" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="I24" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="J24" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -4333,28 +4366,28 @@
         <v>19330051920243</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F25" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="I25" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="J25" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -4368,22 +4401,22 @@
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="E26" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G26" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="H26" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="J26" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -4391,28 +4424,28 @@
         <v>19330051920245</v>
       </c>
       <c r="B27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D27" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E27" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F27" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H27" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="I27" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="J27" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
